--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850B728-0C22-40FD-98A7-505AC4EA3C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83241575-B98E-4601-B480-B0104218DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="ForgotPassWord" sheetId="2" r:id="rId2"/>
+    <sheet name="Home" sheetId="3" r:id="rId2"/>
+    <sheet name="ForgotPassWord" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,22 +27,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>errormessage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Error:Invalid Login Page Title Found</t>
+  </si>
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Error:invalid user credentials</t>
+  </si>
+  <si>
+    <t>Aju Mathew</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>Error:Test Failed</t>
+  </si>
+  <si>
+    <t>aleena97@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Error:invalid error messge</t>
+  </si>
+  <si>
+    <t>Home - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Error:Title Missmatch</t>
+  </si>
+  <si>
+    <t>Error:Date is mismatched</t>
+  </si>
+  <si>
+    <t>Error:Navigation Faild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,35 +397,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>123456</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A025434-1F48-4534-896E-EE8178177C65}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8D56C6C5-B035-4F3A-A23F-A7770A1C094C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83241575-B98E-4601-B480-B0104218DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9112F1-28E6-424F-A687-70163F9084B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Home" sheetId="3" r:id="rId2"/>
-    <sheet name="ForgotPassWord" sheetId="2" r:id="rId3"/>
+    <sheet name="ForgotPassWord" sheetId="2" r:id="rId2"/>
+    <sheet name="Home" sheetId="3" r:id="rId3"/>
+    <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
+    <sheet name="User" sheetId="5" r:id="rId5"/>
+    <sheet name="AddUser" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Error:Invalid Login Page Title Found</t>
   </si>
@@ -68,7 +71,64 @@
     <t>Error:Date is mismatched</t>
   </si>
   <si>
-    <t>Error:Navigation Faild</t>
+    <t>Error:Navigation to login page failed</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>Error:user management tabs not founded</t>
+  </si>
+  <si>
+    <t>Error:invalidUserTitle</t>
+  </si>
+  <si>
+    <t>Users - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Error:No user founded</t>
+  </si>
+  <si>
+    <t>mr renu student</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>Error:User with matched records founded</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>amal123</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Error:Error message is not displayed</t>
+  </si>
+  <si>
+    <t>Add user - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Error:Add user page title not founded</t>
   </si>
 </sst>
 </file>
@@ -397,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,6 +492,9 @@
       </c>
       <c r="I1" t="s">
         <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -441,45 +504,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A025434-1F48-4534-896E-EE8178177C65}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>123456</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -506,4 +530,146 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A025434-1F48-4534-896E-EE8178177C65}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B60738-3C41-4A9B-8B94-7C88BF9DE912}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9112F1-28E6-424F-A687-70163F9084B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B9BBB-F8F0-47FA-9175-3C3E38713673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Error:Invalid Login Page Title Found</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -41,39 +38,18 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Error:invalid user credentials</t>
-  </si>
-  <si>
     <t>Aju Mathew</t>
   </si>
   <si>
     <t>These credentials do not match our records.</t>
   </si>
   <si>
-    <t>Error:Test Failed</t>
-  </si>
-  <si>
-    <t>aleena97@gmail.com</t>
-  </si>
-  <si>
     <t>We can't find a user with that e-mail address.</t>
   </si>
   <si>
-    <t>Error:invalid error messge</t>
-  </si>
-  <si>
     <t>Home - Reobeen HHC</t>
   </si>
   <si>
-    <t>Error:Title Missmatch</t>
-  </si>
-  <si>
-    <t>Error:Date is mismatched</t>
-  </si>
-  <si>
-    <t>Error:Navigation to login page failed</t>
-  </si>
-  <si>
     <t>Users</t>
   </si>
   <si>
@@ -83,18 +59,9 @@
     <t>Sales Commission Agents</t>
   </si>
   <si>
-    <t>Error:user management tabs not founded</t>
-  </si>
-  <si>
-    <t>Error:invalidUserTitle</t>
-  </si>
-  <si>
     <t>Users - Reobeen HHC</t>
   </si>
   <si>
-    <t>Error:No user founded</t>
-  </si>
-  <si>
     <t>mr renu student</t>
   </si>
   <si>
@@ -104,9 +71,6 @@
     <t>alex</t>
   </si>
   <si>
-    <t>Error:User with matched records founded</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -122,13 +86,10 @@
     <t>This field is required.</t>
   </si>
   <si>
-    <t>Error:Error message is not displayed</t>
-  </si>
-  <si>
     <t>Add user - Reobeen HHC</t>
   </si>
   <si>
-    <t>Error:Add user page title not founded</t>
+    <t>aleena@test.com</t>
   </si>
 </sst>
 </file>
@@ -457,44 +418,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>123456</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>123456</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -505,23 +454,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -534,23 +478,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A025434-1F48-4534-896E-EE8178177C65}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +499,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B60738-3C41-4A9B-8B94-7C88BF9DE912}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -569,18 +507,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -591,35 +526,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -629,44 +555,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B9BBB-F8F0-47FA-9175-3C3E38713673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C57FD5-02AB-4CC2-A51A-08B944EB44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Users - Reobeen HHC</t>
   </si>
   <si>
-    <t>mr renu student</t>
-  </si>
-  <si>
     <t>No matching records found</t>
   </si>
   <si>
@@ -90,13 +87,19 @@
   </si>
   <si>
     <t>aleena@test.com</t>
+  </si>
+  <si>
+    <t>0223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +111,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,15 +140,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -462,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -528,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,18 +551,19 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -557,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -565,31 +579,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C57FD5-02AB-4CC2-A51A-08B944EB44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A103CE-A43C-43D9-AB7B-90420EE8CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -68,18 +68,6 @@
     <t>alex</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Amal</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>amal123</t>
-  </si>
-  <si>
     <t>This field is required.</t>
   </si>
   <si>
@@ -89,7 +77,40 @@
     <t>aleena@test.com</t>
   </si>
   <si>
-    <t>0223</t>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>ajo123</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>alan234</t>
+  </si>
+  <si>
+    <t>AlanK</t>
+  </si>
+  <si>
+    <t>alan123</t>
+  </si>
+  <si>
+    <t>Ajin</t>
+  </si>
+  <si>
+    <t>ajin12</t>
+  </si>
+  <si>
+    <t>Ajin Jo</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -541,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -569,41 +590,73 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A103CE-A43C-43D9-AB7B-90420EE8CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C73B92-AD96-4DFB-860F-221BBAE83912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
     <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
     <sheet name="User" sheetId="5" r:id="rId5"/>
-    <sheet name="AddUser" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="AddUser" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -77,15 +78,9 @@
     <t>aleena@test.com</t>
   </si>
   <si>
-    <t>0226</t>
-  </si>
-  <si>
     <t>Jo</t>
   </si>
   <si>
-    <t>ajo123</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -104,13 +99,10 @@
     <t>alan123</t>
   </si>
   <si>
-    <t>Ajin</t>
-  </si>
-  <si>
-    <t>ajin12</t>
-  </si>
-  <si>
-    <t>Ajin Jo</t>
+    <t>Alan Jo</t>
+  </si>
+  <si>
+    <t>alanjose</t>
   </si>
 </sst>
 </file>
@@ -573,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -589,6 +581,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD6AF-A952-487B-A587-B680AF079461}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -600,22 +604,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -624,39 +628,39 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C73B92-AD96-4DFB-860F-221BBAE83912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA34F2-C681-4150-AAC0-86E03B9D23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
     <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
     <sheet name="User" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="UpdateUserPage" sheetId="7" r:id="rId6"/>
     <sheet name="AddUser" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>alanjose</t>
+  </si>
+  <si>
+    <t>Edit user - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -582,12 +588,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD6AF-A952-487B-A587-B680AF079461}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9C93288C-3DAC-487A-92F9-8DAD56DD871A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -596,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA34F2-C681-4150-AAC0-86E03B9D23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DDEFE-E511-43EA-9C0D-7992FD0E378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,30 @@
     <sheet name="UserManagement" sheetId="4" r:id="rId4"/>
     <sheet name="User" sheetId="5" r:id="rId5"/>
     <sheet name="UpdateUserPage" sheetId="7" r:id="rId6"/>
-    <sheet name="AddUser" sheetId="6" r:id="rId7"/>
+    <sheet name="DeleteUser" sheetId="8" r:id="rId7"/>
+    <sheet name="ViewUser" sheetId="9" r:id="rId8"/>
+    <sheet name="Roles" sheetId="10" r:id="rId9"/>
+    <sheet name="AddRoles" sheetId="11" r:id="rId10"/>
+    <sheet name="AddUser" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -102,13 +113,22 @@
     <t>Alan Jo</t>
   </si>
   <si>
-    <t>alanjose</t>
-  </si>
-  <si>
     <t>Edit user - Reobeen HHC</t>
   </si>
   <si>
     <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>eiayu</t>
+  </si>
+  <si>
+    <t>Roles - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Add Role - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>fwfoc</t>
   </si>
 </sst>
 </file>
@@ -484,6 +504,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB03B41-357E-4535-AD1D-C137173B949F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
   <dimension ref="A1:B1"/>
@@ -560,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -571,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -590,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD6AF-A952-487B-A587-B680AF079461}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -598,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -613,74 +727,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30536F0B-7C2C-4F6B-A53B-E9C0AD8A8AC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1CCF1-A621-4128-B4FD-C28931C96C39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0891F98-B925-431A-9CB0-B5D00C97E075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DDEFE-E511-43EA-9C0D-7992FD0E378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FCFC81-A262-49D4-B2CA-319884CB290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -89,9 +89,6 @@
     <t>aleena@test.com</t>
   </si>
   <si>
-    <t>Jo</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -110,25 +107,40 @@
     <t>alan123</t>
   </si>
   <si>
-    <t>Alan Jo</t>
-  </si>
-  <si>
     <t>Edit user - Reobeen HHC</t>
   </si>
   <si>
-    <t>abcdef@gmail.com</t>
-  </si>
-  <si>
-    <t>eiayu</t>
-  </si>
-  <si>
     <t>Roles - Reobeen HHC</t>
   </si>
   <si>
     <t>Add Role - Reobeen HHC</t>
   </si>
   <si>
-    <t>fwfoc</t>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Vini</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>vini123</t>
+  </si>
+  <si>
+    <t>Vini Jose</t>
+  </si>
+  <si>
+    <t>ciana</t>
+  </si>
+  <si>
+    <t>acdfe@gmail.com</t>
+  </si>
+  <si>
+    <t>uighhg</t>
+  </si>
+  <si>
+    <t>Mrs David Jose</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -527,29 +539,29 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -558,39 +570,39 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -674,87 +686,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A06A5-7305-4A8E-B34D-1D5E8E756B54}">
   <dimension ref="A1:D1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD6AF-A952-487B-A587-B680AF079461}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9C93288C-3DAC-487A-92F9-8DAD56DD871A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30536F0B-7C2C-4F6B-A53B-E9C0AD8A8AC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1CCF1-A621-4128-B4FD-C28931C96C39}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD6AF-A952-487B-A587-B680AF079461}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{9C93288C-3DAC-487A-92F9-8DAD56DD871A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30536F0B-7C2C-4F6B-A53B-E9C0AD8A8AC2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1CCF1-A621-4128-B4FD-C28931C96C39}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
+      <c r="A1">
+        <v>123456</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FCFC81-A262-49D4-B2CA-319884CB290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFB5DCF-CA92-4734-8236-6386AA91DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="DeleteUser" sheetId="8" r:id="rId7"/>
     <sheet name="ViewUser" sheetId="9" r:id="rId8"/>
     <sheet name="Roles" sheetId="10" r:id="rId9"/>
-    <sheet name="AddRoles" sheetId="11" r:id="rId10"/>
-    <sheet name="AddUser" sheetId="6" r:id="rId11"/>
+    <sheet name="DeleteRoles" sheetId="13" r:id="rId10"/>
+    <sheet name="UpdateRoles" sheetId="12" r:id="rId11"/>
+    <sheet name="AddRoles" sheetId="11" r:id="rId12"/>
+    <sheet name="AddUser" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -141,6 +143,18 @@
   </si>
   <si>
     <t>Mrs David Jose</t>
+  </si>
+  <si>
+    <t>Edit Role - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>PRO</t>
   </si>
 </sst>
 </file>
@@ -517,24 +531,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D504BD-9872-4562-BDD7-F4AEAD8BF025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A00D63-2A59-4D1D-8471-9632EDDA4126}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB03B41-357E-4535-AD1D-C137173B949F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E41EE0-152A-4E1B-BDE8-83C6F7EF93A6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -760,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1CCF1-A621-4128-B4FD-C28931C96C39}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -781,16 +838,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0891F98-B925-431A-9CB0-B5D00C97E075}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFB5DCF-CA92-4734-8236-6386AA91DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F7FA0-8536-465A-BE75-58294BC5B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>PRO</t>
+    <t>pro</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F7FA0-8536-465A-BE75-58294BC5B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA284258-714E-4CED-895D-22B83522E6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -136,12 +136,6 @@
     <t>ciana</t>
   </si>
   <si>
-    <t>acdfe@gmail.com</t>
-  </si>
-  <si>
-    <t>uighhg</t>
-  </si>
-  <si>
     <t>Mrs David Jose</t>
   </si>
   <si>
@@ -155,6 +149,18 @@
   </si>
   <si>
     <t>pro</t>
+  </si>
+  <si>
+    <t>acdfeg@gmail.com</t>
+  </si>
+  <si>
+    <t>wwwsxcvb</t>
+  </si>
+  <si>
+    <t>0952</t>
+  </si>
+  <si>
+    <t>Edit</t>
   </si>
 </sst>
 </file>
@@ -210,10 +216,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -534,13 +541,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D504BD-9872-4562-BDD7-F4AEAD8BF025}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +781,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -815,46 +822,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1CCF1-A621-4128-B4FD-C28931C96C39}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>123456</v>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0891F98-B925-431A-9CB0-B5D00C97E075}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0891F98-B925-431A-9CB0-B5D00C97E075}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA284258-714E-4CED-895D-22B83522E6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D7B4F-90AD-4CB8-AA62-D770913B5A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="UpdateRoles" sheetId="12" r:id="rId11"/>
     <sheet name="AddRoles" sheetId="11" r:id="rId12"/>
     <sheet name="AddUser" sheetId="6" r:id="rId13"/>
+    <sheet name="Sales" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -161,6 +162,30 @@
   </si>
   <si>
     <t>Edit</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents - Reobeen HHC</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>jain234@gmail.com</t>
+  </si>
+  <si>
+    <t>KK House</t>
+  </si>
+  <si>
+    <t>Mr Jain Tom</t>
+  </si>
+  <si>
+    <t>Mr Lince Paul</t>
+  </si>
+  <si>
+    <t>abcdefg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -603,7 +628,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,6 +699,63 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5956D1-6E98-4E29-9B9A-AFAFDECC9B58}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1">
+        <v>9933445577</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{4B125A45-BA2F-4025-B518-ECCE632F4AED}"/>
+    <hyperlink ref="K1" r:id="rId2" xr:uid="{06EB45A9-DE6C-4EA9-BA72-584CAC79844F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2C629-9113-4566-B140-FA346E843C72}">
   <dimension ref="A1:B1"/>
@@ -851,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0891F98-B925-431A-9CB0-B5D00C97E075}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D7B4F-90AD-4CB8-AA62-D770913B5A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C22893-0F4D-4B29-BC1A-BB5B3FE60C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Vini Jose</t>
   </si>
   <si>
-    <t>ciana</t>
-  </si>
-  <si>
-    <t>Mrs David Jose</t>
-  </si>
-  <si>
     <t>Edit Role - Reobeen HHC</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>acdfeg@gmail.com</t>
   </si>
   <si>
-    <t>wwwsxcvb</t>
-  </si>
-  <si>
     <t>0952</t>
   </si>
   <si>
@@ -182,10 +173,19 @@
     <t>Mr Jain Tom</t>
   </si>
   <si>
-    <t>Mr Lince Paul</t>
-  </si>
-  <si>
-    <t>abcdefg@gmail.com</t>
+    <t>mr xaviour TJ</t>
+  </si>
+  <si>
+    <t>Mrs Anchana das</t>
+  </si>
+  <si>
+    <t>Miss sds sda</t>
+  </si>
+  <si>
+    <t>abcdfg@gmail.com</t>
+  </si>
+  <si>
+    <t>okfbf</t>
   </si>
 </sst>
 </file>
@@ -566,13 +566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D504BD-9872-4562-BDD7-F4AEAD8BF025}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -701,9 +701,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5956D1-6E98-4E29-9B9A-AFAFDECC9B58}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -712,39 +712,42 @@
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1">
         <v>9933445577</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1">
         <v>23</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -873,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -907,17 +910,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -944,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
